--- a/data/eval_scores.xlsx
+++ b/data/eval_scores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\initi\Development\ranking\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60058E68-35F4-4B07-BE2B-74E05481F797}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B93B95D0-0DF3-44AB-883F-6EF3A0F061B1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{7D251358-1EA4-494F-9A13-C83C3F088627}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>File Number</t>
   </si>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t>MARTIN, Angela</t>
-  </si>
-  <si>
-    <t>HANNON, Erin</t>
   </si>
   <si>
     <t>HOWARD, Ryan</t>
@@ -440,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26B62ECF-5D47-43D0-9324-9B819C13405B}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,7 +458,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -543,18 +540,18 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>123463</v>
+        <v>123464</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="1">
-        <v>3</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>123464</v>
+        <v>123465</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -565,40 +562,40 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>123465</v>
+        <v>123466</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="1">
-        <v>2.8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>123466</v>
+        <v>123467</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="1">
-        <v>3</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>123467</v>
+        <v>123468</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="1">
-        <v>3.8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>123468</v>
+        <v>123469</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
@@ -609,45 +606,34 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>123469</v>
+        <v>123470</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="1">
-        <v>3</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>123470</v>
+        <v>123471</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="1">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>123471</v>
+        <v>123472</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="1">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>123472</v>
-      </c>
-      <c r="B18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="1">
         <v>3</v>
       </c>
     </row>

--- a/data/eval_scores.xlsx
+++ b/data/eval_scores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\initi\Development\ranking\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B93B95D0-0DF3-44AB-883F-6EF3A0F061B1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A65A0DFD-EC4E-4F26-8D2B-676535A9FA41}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{7D251358-1EA4-494F-9A13-C83C3F088627}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>File Number</t>
   </si>
@@ -82,6 +82,36 @@
   </si>
   <si>
     <t>Overall Score</t>
+  </si>
+  <si>
+    <t>SCOTT, Michael</t>
+  </si>
+  <si>
+    <t>BERTRAM, Nellie</t>
+  </si>
+  <si>
+    <t>CALIFORNIA, Robert</t>
+  </si>
+  <si>
+    <t>LEVINSON, Jan</t>
+  </si>
+  <si>
+    <t>MILLER, Pete</t>
+  </si>
+  <si>
+    <t>ANDERSON, Roy</t>
+  </si>
+  <si>
+    <t>MINER, Charles</t>
+  </si>
+  <si>
+    <t>GREEN, Clark</t>
+  </si>
+  <si>
+    <t>VICKERS, Deangelo</t>
+  </si>
+  <si>
+    <t>VANCE, Bob</t>
   </si>
 </sst>
 </file>
@@ -437,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26B62ECF-5D47-43D0-9324-9B819C13405B}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+      <selection activeCell="A25" sqref="A25:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -637,6 +667,116 @@
         <v>3</v>
       </c>
     </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>123473</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>123474</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>123475</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>123476</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>123477</v>
+      </c>
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>123478</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>123479</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>123481</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>123482</v>
+      </c>
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="1">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>123483</v>
+      </c>
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="1">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/eval_scores.xlsx
+++ b/data/eval_scores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\initi\Development\ranking\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A65A0DFD-EC4E-4F26-8D2B-676535A9FA41}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6BB9E70-69A4-4EF9-A6D7-91DCF1C5ED9B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{7D251358-1EA4-494F-9A13-C83C3F088627}"/>
   </bookViews>
@@ -54,9 +54,6 @@
     <t>MARTIN, Angela</t>
   </si>
   <si>
-    <t>HOWARD, Ryan</t>
-  </si>
-  <si>
     <t>BRATTON, Creed</t>
   </si>
   <si>
@@ -112,6 +109,9 @@
   </si>
   <si>
     <t>VANCE, Bob</t>
+  </si>
+  <si>
+    <t>PACKER, Todd</t>
   </si>
 </sst>
 </file>
@@ -470,7 +470,7 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:XFD25"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,7 +488,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -573,7 +573,7 @@
         <v>123464</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C9" s="1">
         <v>2.8</v>
@@ -584,7 +584,7 @@
         <v>123465</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" s="1">
         <v>2.8</v>
@@ -595,7 +595,7 @@
         <v>123466</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="1">
         <v>3</v>
@@ -606,7 +606,7 @@
         <v>123467</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="1">
         <v>3.8</v>
@@ -617,7 +617,7 @@
         <v>123468</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" s="1">
         <v>3</v>
@@ -628,7 +628,7 @@
         <v>123469</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" s="1">
         <v>3</v>
@@ -639,7 +639,7 @@
         <v>123470</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" s="1">
         <v>3.6</v>
@@ -650,7 +650,7 @@
         <v>123471</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" s="1">
         <v>3.2</v>
@@ -661,7 +661,7 @@
         <v>123472</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" s="1">
         <v>3</v>
@@ -672,7 +672,7 @@
         <v>123473</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" s="1">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>123474</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" s="1">
         <v>0</v>
@@ -694,7 +694,7 @@
         <v>123475</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20" s="1">
         <v>2</v>
@@ -705,7 +705,7 @@
         <v>123476</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C21" s="1">
         <v>0</v>
@@ -716,7 +716,7 @@
         <v>123477</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C22" s="1">
         <v>4</v>
@@ -727,7 +727,7 @@
         <v>123478</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C23" s="1">
         <v>2.6</v>
@@ -738,7 +738,7 @@
         <v>123479</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" s="1">
         <v>0</v>
@@ -749,7 +749,7 @@
         <v>123481</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" s="1">
         <v>3</v>
@@ -760,7 +760,7 @@
         <v>123482</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C26" s="1">
         <v>3.2</v>
@@ -771,7 +771,7 @@
         <v>123483</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C27" s="1">
         <v>3</v>
